--- a/biology/Botanique/Choisya_ternata/Choisya_ternata.xlsx
+++ b/biology/Botanique/Choisya_ternata/Choisya_ternata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choisya ternata, ou Oranger du Mexique, est une espèce de buisson aromatique à feuillage persistant de la famille des Rutaceae, originaire d'Amérique du Nord depuis le sud-ouest des États-Unis (Arizona, Nouveau-Mexique, Texas) jusqu'à la majeure partie du Mexique.
 Le nom d'oranger du Mexique provient de la ressemblance de ses fleurs avec celles de l'oranger, à la fois par la forme et par le parfum.
-Son introduction en Europe eut lieu vers 1825 grâce au botaniste Aimé Bonpland qui le découvrit au Mexique vers 1804 à la fin de l'expédition entreprise avec le baron prussien Alexandre de Humboldt en Amérique latine qui dura cinq années. Un autre spécimen a été découvert en 1866 dans les montagnes mexicaines par M. Hann, collecteur botaniste de la Commission scientifique française[2].
+Son introduction en Europe eut lieu vers 1825 grâce au botaniste Aimé Bonpland qui le découvrit au Mexique vers 1804 à la fin de l'expédition entreprise avec le baron prussien Alexandre de Humboldt en Amérique latine qui dura cinq années. Un autre spécimen a été découvert en 1866 dans les montagnes mexicaines par M. Hann, collecteur botaniste de la Commission scientifique française.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste à souche ligneuse et au port buissonnant dense et arrondi atteint 1 à 3 m en tous sens.
 Les feuilles sont sessiles opposées, obovales, vert clair et brillantes, composées de plusieurs folioles (3 en général, d'où l'épithète de ternata) largement oblongues, assez épaisses, ponctuées, de 4-8 cm.
-Les fleurs sont en forme d'étoile, de 3 à 5 cm de diamètre, avec de 4 à 7 pétales blanc pur, de 8 à 15 étamines jaunes d'or et un stigmate vert. Les cymes de 3 à 9 fleurs qui dépassent le feuillage apparaissent à la fin du printemps et en été et remontent souvent en automne (fleur à deux floraisons)[3].
+Les fleurs sont en forme d'étoile, de 3 à 5 cm de diamètre, avec de 4 à 7 pétales blanc pur, de 8 à 15 étamines jaunes d'or et un stigmate vert. Les cymes de 3 à 9 fleurs qui dépassent le feuillage apparaissent à la fin du printemps et en été et remontent souvent en automne (fleur à deux floraisons).
 Le fruit est une capsule à 5 loges.
 			Aspect d'ensemble, en hiver
 			Aspect d'ensemble, en fleurs
@@ -553,15 +567,52 @@
           <t>Culture et usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante d'ornement (utilisée en isolé, en massifs, voire en haie taillée[4]) à croissance rapide appréciée dans les régions à hivers doux, pour ses feuilles et fleurs fortement aromatiques. Les fleurs, qui produisent un nectar abondant, sont aussi appréciées par les abeilles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante d'ornement (utilisée en isolé, en massifs, voire en haie taillée) à croissance rapide appréciée dans les régions à hivers doux, pour ses feuilles et fleurs fortement aromatiques. Les fleurs, qui produisent un nectar abondant, sont aussi appréciées par les abeilles.
 Elle apprécie une exposition au soleil ou à mi-ombre et une terre bien drainée et assez riche. L'oranger du Mexique supporte le calcaire mais sans excès.
-Il supporte également le froid jusqu'à -10 °C mais craint les courants d'air froid[5].
+Il supporte également le froid jusqu'à -10 °C mais craint les courants d'air froid.
 Se bouture très facilement de juin à septembre avec des rameaux semi-aoûtés (tiges de têtes semi-ligneuses). Marcottage possible.
-Beaucoup d'alcaloïdes quinoléiniques ont été isolés à partir des feuilles de C. ternata[6]. Un alcaloïde dérivé de l'anthranilate, le ternanthranine, peut être considéré comme responsable de l'activité anti-nociceptive des extraits bruts de cette plante[7].
-Cultivars
-Plusieurs cultivars ont été sélectionnés[8] :
+Beaucoup d'alcaloïdes quinoléiniques ont été isolés à partir des feuilles de C. ternata. Un alcaloïde dérivé de l'anthranilate, le ternanthranine, peut être considéré comme responsable de l'activité anti-nociceptive des extraits bruts de cette plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Choisya_ternata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choisya_ternata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Culture et usage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs cultivars ont été sélectionnés :
 Choisya 'Aztec Pearl' aux feuilles vert sombre, formées de folioles linéaires, il fleurit 2 fois au début de l'été et vers le début de l'automne ;
 Choisya 'White dazzler' : hybride de 'Aztec Pearl' avec C. dumosa qui lui donne une forme plus compacte. Floraison blanche recouvrant tout le feuillage composé de feuilles divisées;
 Choisya 'Goldfingers' au feuillage vert sombre brillant plus large et à l'abondante floraison blanche ;
